--- a/mbs-perturbation/bloated/welm/smote/bloated_welm_lin_smote_results.xlsx
+++ b/mbs-perturbation/bloated/welm/smote/bloated_welm_lin_smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8914027149321267</v>
+        <v>0.9203980099502488</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9118942731277533</v>
+        <v>0.9653465346534653</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8961038961038961</v>
+        <v>0.9241706161137441</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9547689785882594</v>
+        <v>0.9593069306930693</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8979591836734694</v>
+        <v>0.9527363184079602</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9068627450980392</v>
+        <v>0.9641025641025641</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8915662650602409</v>
+        <v>0.9518987341772152</v>
       </c>
       <c r="E3" t="n">
-        <v>0.959563994374121</v>
+        <v>0.9839341013254057</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8979591836734694</v>
+        <v>0.8756218905472637</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9315068493150684</v>
+        <v>0.9481865284974094</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9006622516556291</v>
+        <v>0.8798076923076923</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9510983586326051</v>
+        <v>0.9309690854550413</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8934240362811792</v>
+        <v>0.9127182044887781</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9301310043668122</v>
+        <v>0.9387755102040817</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9006342494714586</v>
+        <v>0.9131513647642679</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9469494108923128</v>
+        <v>0.9605276256844202</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.873015873015873</v>
+        <v>0.9201995012468828</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8883928571428571</v>
+        <v>0.9495412844036697</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8766519823788546</v>
+        <v>0.9282511210762332</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9485681369321922</v>
+        <v>0.9637038151100416</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8907521983152236</v>
+        <v>0.9163347849282266</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9137575458101059</v>
+        <v>0.9531904843722382</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8931237289340158</v>
+        <v>0.9194559056878304</v>
       </c>
       <c r="E7" t="n">
-        <v>0.952189775883898</v>
+        <v>0.9596883116535956</v>
       </c>
     </row>
   </sheetData>
